--- a/Dataset/Folds/Fold_2/Excel/91.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="387">
   <si>
     <t>Doi</t>
   </si>
@@ -1156,6 +1156,105 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,                           Li-Gang%Zhang%NULL%0,                           Lei-Lei%Wang%NULL%0,                           Zhao-Chang%Guo%NULL%0,                           Jing-Qi%Wang%NULL%0,                           Jin-Cheng%Chen%NULL%0,                           Mei%Liu%NULL%0,                           Xi%Chen%NULL%0,                           Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                            Elena%Sironi%NULL%2,                            Elena%Sironi%NULL%0,                            Federico%Antonini%NULL%1,                            Marco Luigi%Ciceri%NULL%1,                            Chiara%Bovo%NULL%2,                            Chiara%Bovo%NULL%0,                            Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                            Lin Na%Wang%NULL%1,                            Juan%Liu%NULL%1,                            Shuan Feng%Fang%NULL%1,                            Fu Yong%Jiao%NULL%1,                            Massimo%Pettoello-Mantovani%NULL%1,                            Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                            Li-Gang%Zhang%NULL%3,                            Lei-Lei%Wang%NULL%3,                            Zhao-Chang%Guo%NULL%3,                            Jing-Qi%Wang%NULL%3,                            Jin-Cheng%Chen%NULL%3,                            Mei%Liu%NULL%3,                            Xi%Chen%NULL%0,                            Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                            Wen-Tao%Luo%NULL%1,                            Ying%Li%NULL%0,                            Chun-Na%Li%NULL%1,                            Zhong-Si%Hong%NULL%1,                            Hui-Li%Chen%NULL%1,                            Fei%Xiao%NULL%1,                            Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                            Cara A.%Palmer%NULL%2,                            Jenna%Wilson%NULL%2,                            Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                            Sümeyye%Ulaş%NULL%4,                            Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                            Hongxia%Li%lihx@xust.edu.cn%1,                            Shuicheng%Tian%tiansc@xust.edu.cn%1,                            Jie%Yang%NULL%0,                            Jiang%Shao%NULL%1,                            Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                            Li-Gang%Zhang%NULL%0,                            Lei-Lei%Wang%NULL%0,                            Zhao-Chang%Guo%NULL%0,                            Jing-Qi%Wang%NULL%0,                            Jin-Cheng%Chen%NULL%0,                            Mei%Liu%NULL%0,                            Xi%Chen%NULL%0,                            Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                             Elena%Sironi%NULL%2,                             Elena%Sironi%NULL%0,                             Federico%Antonini%NULL%1,                             Marco Luigi%Ciceri%NULL%1,                             Chiara%Bovo%NULL%2,                             Chiara%Bovo%NULL%0,                             Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                             Lin Na%Wang%NULL%1,                             Juan%Liu%NULL%1,                             Shuan Feng%Fang%NULL%1,                             Fu Yong%Jiao%NULL%1,                             Massimo%Pettoello-Mantovani%NULL%1,                             Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                             Li-Gang%Zhang%NULL%3,                             Lei-Lei%Wang%NULL%3,                             Zhao-Chang%Guo%NULL%3,                             Jing-Qi%Wang%NULL%3,                             Jin-Cheng%Chen%NULL%3,                             Mei%Liu%NULL%3,                             Xi%Chen%NULL%0,                             Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                             Wen-Tao%Luo%NULL%1,                             Ying%Li%NULL%0,                             Chun-Na%Li%NULL%1,                             Zhong-Si%Hong%NULL%1,                             Hui-Li%Chen%NULL%1,                             Fei%Xiao%NULL%1,                             Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                             Cara A.%Palmer%NULL%2,                             Jenna%Wilson%NULL%2,                             Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                             Sümeyye%Ulaş%NULL%4,                             Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                             Hongxia%Li%lihx@xust.edu.cn%1,                             Shuicheng%Tian%tiansc@xust.edu.cn%1,                             Jie%Yang%NULL%0,                             Jiang%Shao%NULL%1,                             Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                             Li-Gang%Zhang%NULL%0,                             Lei-Lei%Wang%NULL%0,                             Zhao-Chang%Guo%NULL%0,                             Jing-Qi%Wang%NULL%0,                             Jin-Cheng%Chen%NULL%0,                             Mei%Liu%NULL%0,                             Xi%Chen%NULL%0,                             Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2019 coronavirus disease (COVID-19) outbreak could result in higher levels of psychological distress, especially among people suffering from pre-existing mental health conditions.
+ Young individuals with autism spectrum disorders (ASD) are particularly at risk due to their vulnerability to unpredictable and complex changes.
+ This study aimed to investigate the impact of the COVID-19 pandemic on ASD individuals, whether any pre-pandemic sociodemographic or clinical characteristics would predict a negative outcome, and to narratively characterize their needs.
+ Parents and guardians of ASD individuals filled out an online survey consisting of 40 questions investigating socio-demographic and clinical characteristics of their children, impact of the COVID-19 outbreak on their wellbeing and needs to deal with the emergency.
+ Data were available on 527 survey participants.
+ The COVID-19 emergency resulted in a challenging period for 93.9% of families, increased difficulties in managing daily activities, especially free time (78.1%) and structured activities (75.7%), and, respectively, 35.5% and 41.5% of children presenting with more intense and more frequent behavior problems.
+ Behavior problems predating the COVID-19 outbreak predicted a higher risk of more intense (odds ratio (OR) = 2.16, 95% confidence interval (CI) 1.42–3.29) and more frequent (OR = 1.67, 95% CI 1.13–2.48) disruptive behavior.
+ Even though ASD children were receiving different types of support, also requiring specialist (19.1%) or emergency (1.5%) interventions in a relatively low proportion of cases, a number of needs emerged, including receiving more healthcare support (47.4%), especially in-home support (29.9%), as well as interventions to tackle a potentially disruptive quarantine (16.8%).
+ The COVID-19 outbreak has undoubtedly resulted in increased difficulties among ASD individuals.
+ </t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%0, Elena%Sironi%NULL%2, Elena%Sironi%NULL%0, Federico%Antonini%NULL%1, Marco Luigi%Ciceri%NULL%1, Chiara%Bovo%NULL%2, Chiara%Bovo%NULL%0, Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%0, Lin Na%Wang%NULL%1, Juan%Liu%NULL%1, Shuan Feng%Fang%NULL%1, Fu Yong%Jiao%NULL%1, Massimo%Pettoello-Mantovani%NULL%1, Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%0, Wen-Tao%Luo%NULL%1, Ying%Li%NULL%0, Chun-Na%Li%NULL%1, Zhong-Si%Hong%NULL%1, Hui-Li%Chen%NULL%1, Fei%Xiao%NULL%0, Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%0, Cara A.%Palmer%NULL%2, Jenna%Wilson%NULL%2, Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>Society for Adolescent Health and Medicine.</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%0, Sümeyye%Ulaş%NULL%4, Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%0, Hongxia%Li%lihx@xust.edu.cn%1, Shuicheng%Tian%tiansc@xust.edu.cn%1, Jie%Yang%NULL%0, Jiang%Shao%NULL%1, Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
   </si>
 </sst>
 </file>
@@ -1538,28 +1637,28 @@
         <v>43923.0</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1573,10 +1672,10 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1588,10 +1687,10 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
@@ -1608,7 +1707,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1620,10 +1719,10 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
@@ -1640,7 +1739,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1652,10 +1751,10 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6">
@@ -1669,10 +1768,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1684,10 +1783,10 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7">
@@ -1704,7 +1803,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1716,10 +1815,10 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8">
@@ -1736,7 +1835,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1748,10 +1847,10 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9">
@@ -1768,7 +1867,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1780,10 +1879,10 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10">
@@ -1794,25 +1893,25 @@
         <v>43972.0</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>32</v>
@@ -1826,28 +1925,28 @@
         <v>43929.0</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>298</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1858,28 +1957,28 @@
         <v>43945.0</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +1995,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>356</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -1908,10 +2007,10 @@
         <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14">
